--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham Pawar\OneDrive\Desktop\Automation\Day_44\Step7- DataDriven\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham Pawar\eclipse-workspace\OpenCart\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E00182-BECC-46A9-8250-E0B681F28369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7A6D06-9016-434E-9083-BA921D6D8F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3768" yWindow="3264" windowWidth="17280" windowHeight="8964" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -69,13 +60,16 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test@123</t>
   </si>
   <si>
     <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>shubhampawar2457@gmail.com</t>
+  </si>
+  <si>
+    <t>shubh3100</t>
   </si>
 </sst>
 </file>
@@ -473,7 +467,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,10 +490,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -540,10 +534,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -555,7 +549,7 @@
     <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="B2" r:id="rId5" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
     <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
   </hyperlinks>
